--- a/Turma Home Jan2018/2° Sabado/Aula 4 PROCV/Procv 1 Aula Procv.xlsx
+++ b/Turma Home Jan2018/2° Sabado/Aula 4 PROCV/Procv 1 Aula Procv.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C35807-D120-458C-B046-C8FBFAE2FD02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CA91D-5EF7-412F-94CE-049E7154976C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,9 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="tabela" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="aula5">#REF!</definedName>
-  </definedNames>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -449,6 +449,119 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Plan1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Inglês Básico</v>
+          </cell>
+          <cell r="C2">
+            <v>152.34</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Inglês Intermediário</v>
+          </cell>
+          <cell r="C3">
+            <v>199</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Inglês Avançado</v>
+          </cell>
+          <cell r="C4">
+            <v>270</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Espanhol Básico</v>
+          </cell>
+          <cell r="C5">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Espanhol Intermediário</v>
+          </cell>
+          <cell r="C6">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Espanhol Avançado</v>
+          </cell>
+          <cell r="C7">
+            <v>230</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Francês Básico</v>
+          </cell>
+          <cell r="C8">
+            <v>170</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Francês Intermediário</v>
+          </cell>
+          <cell r="C9">
+            <v>217</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>Francês Avançado</v>
+          </cell>
+          <cell r="C10">
+            <v>280</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +964,18 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <f>VLOOKUP(C9,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>195.77</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(D9,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>195.77</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(C9,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>199</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -863,7 +987,18 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7">
+        <f>VLOOKUP(C10,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(D10,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(C10,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -875,7 +1010,18 @@
       <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <f>VLOOKUP(C11,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>195.77</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(D11,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>195.77</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(C11,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>199</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -887,7 +1033,18 @@
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <f>VLOOKUP(C12,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(D12,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(C12,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -899,7 +1056,18 @@
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7">
+        <f>VLOOKUP(C13,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>152.34</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(D13,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>152.34</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(C13,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>152.34</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -911,7 +1079,18 @@
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <f>VLOOKUP(C14,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(D14,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(C14,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
@@ -923,7 +1102,18 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7">
+        <f>VLOOKUP(C15,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>152.34</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(D15,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>152.34</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(C15,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>152.34</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
@@ -935,9 +1125,20 @@
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7">
+        <f>VLOOKUP(C16,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(D16,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="G16">
+        <f>VLOOKUP(C16,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,9 +1148,20 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="7">
+        <f>VLOOKUP(C17,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(D17,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(C17,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
@@ -959,9 +1171,20 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="7">
+        <f>VLOOKUP(C18,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(D18,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="G18">
+        <f>VLOOKUP(C18,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -971,9 +1194,20 @@
       <c r="D19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="7">
+        <f>VLOOKUP(C19,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(D19,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G19">
+        <f>VLOOKUP(C19,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,9 +1217,20 @@
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="7">
+        <f>VLOOKUP(C20,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="F20">
+        <f>VLOOKUP(D20,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="G20">
+        <f>VLOOKUP(C20,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
@@ -995,9 +1240,20 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="7">
+        <f>VLOOKUP(C21,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(D21,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>230</v>
+      </c>
+      <c r="G21">
+        <f>VLOOKUP(C21,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1007,9 +1263,20 @@
       <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="7">
+        <f>VLOOKUP(C22,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>195.77</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(D22,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>195.77</v>
+      </c>
+      <c r="G22">
+        <f>VLOOKUP(C22,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,9 +1286,20 @@
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="7">
+        <f>VLOOKUP(C23,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="F23">
+        <f>VLOOKUP(D23,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G23">
+        <f>VLOOKUP(C23,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
@@ -1031,9 +1309,20 @@
       <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="7">
+        <f>VLOOKUP(C24,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="F24">
+        <f>VLOOKUP(D24,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>130</v>
+      </c>
+      <c r="G24">
+        <f>VLOOKUP(C24,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1043,9 +1332,20 @@
       <c r="D25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="7">
+        <f>VLOOKUP(C25,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>280</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(D25,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>280</v>
+      </c>
+      <c r="G25">
+        <f>VLOOKUP(C25,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1055,9 +1355,20 @@
       <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="7">
+        <f>VLOOKUP(C26,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>152.34</v>
+      </c>
+      <c r="F26">
+        <f>VLOOKUP(D26,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>152.34</v>
+      </c>
+      <c r="G26">
+        <f>VLOOKUP(C26,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>152.34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1067,9 +1378,20 @@
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="7">
+        <f>VLOOKUP(C27,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="F27">
+        <f>VLOOKUP(D27,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>217</v>
+      </c>
+      <c r="G27">
+        <f>VLOOKUP(C27,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1079,9 +1401,20 @@
       <c r="D28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="7">
+        <f>VLOOKUP(C28,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="F28">
+        <f>VLOOKUP(D28,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>180</v>
+      </c>
+      <c r="G28">
+        <f>VLOOKUP(C28,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
@@ -1091,9 +1424,20 @@
       <c r="D29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E29" s="7">
+        <f>VLOOKUP(C29,tabela!$A$2:$C$10,3,FALSE)</f>
+        <v>170</v>
+      </c>
+      <c r="F29">
+        <f>VLOOKUP(D29,tabela!$B$2:$C$10,2,FALSE)</f>
+        <v>170</v>
+      </c>
+      <c r="G29">
+        <f>VLOOKUP(C29,[1]Plan1!$A$2:$C$10,3,FALSE)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:H6"/>
@@ -1109,7 +1453,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
